--- a/day-111.xlsx
+++ b/day-111.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA 14\Excel\day-11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA 14\Excel\da14_dataValidation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44867D4-718C-4BD2-8C68-467D5060C0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365458BA-9871-4A0A-8A97-3A9CC4CBD560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="C3:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,7 +485,7 @@
         <v>800</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="H6">
         <v>500</v>
@@ -501,7 +501,7 @@
       </c>
       <c r="L6">
         <f>AVERAGE(D6,E6,F6,G6,H6,I6,J6,K6)</f>
-        <v>887.625</v>
+        <v>903</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.3">
